--- a/biology/Botanique/Scirpe/Scirpe.xlsx
+++ b/biology/Botanique/Scirpe/Scirpe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On appelle « scirpe » diverses plantes de sols généralement humides ou détrempés, de la famille des Cyperaceae. Beaucoup de scirpes sont aussi appelés « souchets ». « Scirpe » est un nom masculin et dérive du latin d'époque impériale scirpus qui désignait les « joncs »[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On appelle « scirpe » diverses plantes de sols généralement humides ou détrempés, de la famille des Cyperaceae. Beaucoup de scirpes sont aussi appelés « souchets ». « Scirpe » est un nom masculin et dérive du latin d'époque impériale scirpus qui désignait les « joncs ».
 Le genre des scirpes n'est pas toujours Scirpus. De nombreuses espèces ont été appelées scirpes par analogie de forme. D'autres, autrefois incluses dans le genre Scirpus, sont aujourd'hui désignées par d'autres appellations de genre, en raison de la division du genre Scirpus. Les scirpes appartiennent en réalité à un réseau de plus de 10 genres différents, listés ci-dessous.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Scirpus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Scirpus est notamment le genre du :
 scirpe des bois, Scirpus sylvaticus L.
@@ -544,7 +558,9 @@
           <t>Schoenoplectus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Schoenoplectus est notamment le genre du :
 scirpe des lacs, Schoenoplectus lacustris (L.) Palla
@@ -579,7 +595,9 @@
           <t>Bolboschoenus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bolboschoenus est notamment le genre du :
 scirpe maritime, Bolboschoenus maritimus (L.) Palla</t>
@@ -610,7 +628,9 @@
           <t>Blysmus</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Blysmus est notamment le genre du :
 scirpe comprimé, Blysmus compressus (L.) Panz. ex Link
@@ -642,7 +662,9 @@
           <t>Scirpoides</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Scirpoides est notamment le genre du :
 scirpe-jonc, Scirpoides holoschoenus (L.) Soják
@@ -674,7 +696,9 @@
           <t>Eleocharis</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Eleocharis est notamment le genre du :
 scirpe à nombreuses tiges, Eleocharis multicaulis (Sm.) Desv.
@@ -707,7 +731,9 @@
           <t>Eleogiton</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Eleogiton est notamment le genre du :
 scirpe flottant, Eleogiton fluitans (L.) Link</t>
@@ -738,7 +764,9 @@
           <t>Isolepis</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Isolepis est notamment le genre du :
 scirpe incliné, Isolepis cernua (Vahl) Roem. &amp; Schult.
@@ -771,7 +799,9 @@
           <t>Trichophorum</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Trichophorum est notamment le genre du :
 scirpe alpin ou scirpe Hudson, Trichophorum alpinum (L.) Pers. , 1805
@@ -804,7 +834,9 @@
           <t>Cyperus michelianus</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Une espèce du genre Cyperus, Cyperus michelianus (L.) Link, est appelée « Scirpe de Micheli »
 </t>
@@ -835,7 +867,9 @@
           <t>Autre scirpe</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">La prêle faux scirpe, Equisetum scirpoides Michx., est une espèce de plante primitive de la famille des Equisetaceae.
 </t>
